--- a/TCCB/TCCB/obj/Release/Package/PackageTmp/Utils/Excel/ds-hoanthanh.xlsx
+++ b/TCCB/TCCB/obj/Release/Package/PackageTmp/Utils/Excel/ds-hoanthanh.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="6 5 2018 12 00 00 AM" sheetId="1" r:id="rId1"/>
+    <sheet name="7 12 2018 12 00 00 AM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>DANH SÁCH ỨNG VIÊN HOÀN THÀNH HỒ SƠ</t>
   </si>
@@ -20,12 +20,15 @@
     <t>SỞ GIÁO DỤC VÀ ĐÀO TẠO TP.HỒ CHÍ MINH</t>
   </si>
   <si>
-    <t>Tính tới ngày 5/6/2018</t>
+    <t>Tính tới ngày 12/7/2018</t>
   </si>
   <si>
     <t>STT</t>
   </si>
   <si>
+    <t>MÃ ĐĂNG KÍ</t>
+  </si>
+  <si>
     <t>HỌ VÀ TÊN LÓT</t>
   </si>
   <si>
@@ -44,7 +47,7 @@
     <t>NƠI Ở HIỆN NAY</t>
   </si>
   <si>
-    <t>HÔ KHẨU THƯỞNG TRÚ</t>
+    <t>HÔ KHẨU THƯỜNG TRÚ</t>
   </si>
   <si>
     <t>SỐ ĐIỆN THOẠI</t>
@@ -71,10 +74,10 @@
     <t>KIỂU ĐÀO TẠO</t>
   </si>
   <si>
-    <t>ĐIỂM TB</t>
-  </si>
-  <si>
-    <t>ĐIỂM ĐỒ ÁN</t>
+    <t>ĐIỂM TB HỌC TẬP</t>
+  </si>
+  <si>
+    <t>ĐIỂM LUẬN VĂN TN</t>
   </si>
   <si>
     <t>CHỨNG CHỈ NVSP</t>
@@ -164,33 +167,45 @@
     <t>Tôi chưa có thời gian công tác trong ngành</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>213213</t>
+  </si>
+  <si>
+    <t>2131241</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1/5/2018</t>
+  </si>
+  <si>
+    <t>321637861283</t>
+  </si>
+  <si>
+    <t>28/17A,Kp2,Hiep Thanh, Quan 12, Ho Chi Minh,Phường Bến Nghé, Quận 1</t>
+  </si>
+  <si>
+    <t>28/17A,Kp2,Hiep Thanh, Quan 12, Ho Chi Minh,Phường Bến Nghé, Quận 1, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp Trung cấp ngành sư phạm</t>
+  </si>
+  <si>
+    <t>Chưa có</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giáo viên  Thể dục</t>
+  </si>
+  <si>
     <t>Không có</t>
   </si>
   <si>
-    <t>1/5/2018</t>
-  </si>
-  <si>
-    <t>321637861283</t>
-  </si>
-  <si>
-    <t>28/17A,Kp2,Hiep Thanh, Quan 12, Ho Chi Minh,Phường Bến Nghé, Quận 1</t>
-  </si>
-  <si>
-    <t>28/17A,Kp2,Hiep Thanh, Quan 12, Ho Chi Minh,Phường Bến Nghé, Quận 1, Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Thành Phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Tốt nghiệp Trung cấp ngành sư phạm</t>
-  </si>
-  <si>
-    <t>Chưa có</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giáo viên  Thể dục</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đỗ Thị                                            </t>
   </si>
   <si>
@@ -210,6 +225,24 @@
   </si>
   <si>
     <t>28/17A,Phường Bến Nghé, Quận 1, Thành Phố Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Trương Thị</t>
+  </si>
+  <si>
+    <t>Hạnh</t>
+  </si>
+  <si>
+    <t>23/7/2018</t>
+  </si>
+  <si>
+    <t>12345678910</t>
+  </si>
+  <si>
+    <t>abc,Phường Bến Nghé, Quận 1</t>
+  </si>
+  <si>
+    <t>abc,Phường Bến Nghé, Quận 1, Thành Phố Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -285,40 +318,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:AB9"/>
+  <dimension ref="A2:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.2639792306083" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5031912667411" customWidth="1"/>
-    <col min="5" max="5" width="10.356335231236" customWidth="1"/>
-    <col min="6" max="6" width="10.1916209629604" customWidth="1"/>
-    <col min="7" max="7" width="16.2880674089704" customWidth="1"/>
-    <col min="8" max="8" width="23.0229056222098" customWidth="1"/>
-    <col min="9" max="9" width="15.0685740879604" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.598148890904" customWidth="1"/>
-    <col min="12" max="12" width="15.9709178379604" customWidth="1"/>
-    <col min="13" max="13" width="12.4311109270368" customWidth="1"/>
-    <col min="14" max="14" width="12.7850919451032" customWidth="1"/>
-    <col min="15" max="15" width="17.5341611589704" customWidth="1"/>
-    <col min="16" max="16" width="14.5877336774554" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.8495450701032" customWidth="1"/>
-    <col min="19" max="19" width="17.2773720877511" customWidth="1"/>
-    <col min="20" max="20" width="14.3943743024554" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.8208988734654" customWidth="1"/>
+    <col min="3" max="3" width="15.2639792306083" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5031912667411" customWidth="1"/>
+    <col min="6" max="6" width="10.356335231236" customWidth="1"/>
+    <col min="7" max="7" width="10.1916209629604" customWidth="1"/>
+    <col min="8" max="8" width="16.2880674089704" customWidth="1"/>
+    <col min="9" max="9" width="23.0229056222098" customWidth="1"/>
+    <col min="10" max="10" width="15.0685740879604" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.598148890904" customWidth="1"/>
+    <col min="13" max="13" width="15.9709178379604" customWidth="1"/>
+    <col min="14" max="14" width="12.4311109270368" customWidth="1"/>
+    <col min="15" max="15" width="12.7850919451032" customWidth="1"/>
+    <col min="16" max="16" width="17.5341611589704" customWidth="1"/>
+    <col min="17" max="17" width="14.5877336774554" customWidth="1"/>
+    <col min="18" max="18" width="17.5362080165318" customWidth="1"/>
+    <col min="19" max="19" width="19.3132716587612" customWidth="1"/>
+    <col min="20" max="20" width="17.2773720877511" customWidth="1"/>
+    <col min="21" max="21" width="14.3943743024554" customWidth="1"/>
     <col min="22" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.4781723022461" customWidth="1"/>
-    <col min="24" max="24" width="24.4551980154855" customWidth="1"/>
-    <col min="25" max="25" width="17.9331566946847" customWidth="1"/>
-    <col min="26" max="26" width="11.7026890345982" customWidth="1"/>
-    <col min="27" max="27" width="14.284905569894" customWidth="1"/>
-    <col min="28" max="28" width="27.7576533726283" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.4781723022461" customWidth="1"/>
+    <col min="25" max="25" width="24.4551980154855" customWidth="1"/>
+    <col min="26" max="26" width="17.9331566946847" customWidth="1"/>
+    <col min="27" max="27" width="11.7026890345982" customWidth="1"/>
+    <col min="28" max="28" width="14.284905569894" customWidth="1"/>
+    <col min="29" max="29" width="27.7576533726283" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -445,13 +479,16 @@
       <c r="AB6" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="AC6" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>31</v>
+      <c r="B7" s="0">
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>32</v>
@@ -489,20 +526,17 @@
       <c r="N7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="0">
+      <c r="O7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="0">
         <v>2018</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="0">
+      <c r="Q7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="0">
         <v>6.72</v>
-      </c>
-      <c r="R7" s="0">
-        <v>4.3</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="T7" s="0" t="s">
         <v>46</v>
@@ -514,7 +548,7 @@
         <v>48</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X7" s="0" t="s">
         <v>49</v>
@@ -523,155 +557,244 @@
         <v>50</v>
       </c>
       <c r="Z7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AA7" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
         <v>2</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>51</v>
+      <c r="B8" s="0">
+        <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>55</v>
+      <c r="K8" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="0">
+        <v>60</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="0">
         <v>2018</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="0">
+      <c r="Q8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="0">
         <v>2.3</v>
       </c>
-      <c r="S8" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="T8" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="V8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y8" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="W8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>3</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>59</v>
+      <c r="B9" s="0">
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>55</v>
+      <c r="K9" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="0">
+        <v>60</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="0">
         <v>2018</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="0">
+      <c r="Q9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="0">
         <v>8</v>
       </c>
-      <c r="S9" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="T9" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="V9" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="Y9" s="0" t="s">
         <v>50</v>
       </c>
       <c r="Z9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0">
+        <v>72</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="0">
+        <v>2018</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="0">
+        <v>7</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB9" s="0" t="s">
-        <v>50</v>
+      <c r="AA10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
